--- a/backend/bookings.xlsx
+++ b/backend/bookings.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="87">
   <si>
     <t>ID</t>
   </si>
@@ -71,6 +71,210 @@
   </si>
   <si>
     <t>deleted</t>
+  </si>
+  <si>
+    <t>user-1770119815176-hoxtkvb4s</t>
+  </si>
+  <si>
+    <t>2026-02-02</t>
+  </si>
+  <si>
+    <t>2026-02-04</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>+79295492600</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>2026-02-03T11:56:55.176Z</t>
+  </si>
+  <si>
+    <t>active</t>
+  </si>
+  <si>
+    <t>user-1770119855124-g1eqjonih</t>
+  </si>
+  <si>
+    <t>2026-02-03T11:57:35.124Z</t>
+  </si>
+  <si>
+    <t>user-1770119950087-k4vgqqx4n</t>
+  </si>
+  <si>
+    <t>small</t>
+  </si>
+  <si>
+    <t>2026-02-16</t>
+  </si>
+  <si>
+    <t>2026-02-26</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2026-02-03T11:59:10.087Z</t>
+  </si>
+  <si>
+    <t>user-1770120280332-69nb5jb6r</t>
+  </si>
+  <si>
+    <t>+79015545015</t>
+  </si>
+  <si>
+    <t>2026-02-03T12:04:40.332Z</t>
+  </si>
+  <si>
+    <t>user-1770122354805-18kmfudmi</t>
+  </si>
+  <si>
+    <t>2026-02-03T12:39:14.805Z</t>
+  </si>
+  <si>
+    <t>user-1770122533215-7rxc5y0re</t>
+  </si>
+  <si>
+    <t>2026-02-21</t>
+  </si>
+  <si>
+    <t>2026-02-24</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>2026-02-03T12:42:13.215Z</t>
+  </si>
+  <si>
+    <t>user-1770122565576-9wiqi22r6</t>
+  </si>
+  <si>
+    <t>big-3</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>2026-02-03T12:42:45.576Z</t>
+  </si>
+  <si>
+    <t>user-1770122573478-tx5tnb7go</t>
+  </si>
+  <si>
+    <t>big-2</t>
+  </si>
+  <si>
+    <t>2026-02-03T12:42:53.478Z</t>
+  </si>
+  <si>
+    <t>user-1770122615861-ceupc3kd7</t>
+  </si>
+  <si>
+    <t>2026-02-03T12:43:35.861Z</t>
+  </si>
+  <si>
+    <t>user-1770122787727-j0284dohn</t>
+  </si>
+  <si>
+    <t>small-1</t>
+  </si>
+  <si>
+    <t>2026-02-05</t>
+  </si>
+  <si>
+    <t>2026-02-07</t>
+  </si>
+  <si>
+    <t>2026-02-03T12:46:27.727Z</t>
+  </si>
+  <si>
+    <t>user-1770122909453-em885b244</t>
+  </si>
+  <si>
+    <t>2026-02-03T12:48:29.453Z</t>
+  </si>
+  <si>
+    <t>user-1770123098257-wvbd7kwo9</t>
+  </si>
+  <si>
+    <t>2026-02-27</t>
+  </si>
+  <si>
+    <t>+79774378837</t>
+  </si>
+  <si>
+    <t>2026-02-03T12:51:38.257Z</t>
+  </si>
+  <si>
+    <t>user-1770123127061-xfv5lwmhr</t>
+  </si>
+  <si>
+    <t>2026-02-03T12:52:07.061Z</t>
+  </si>
+  <si>
+    <t>user-1770123187772-32x6jubnm</t>
+  </si>
+  <si>
+    <t>2026-02-03T12:53:07.772Z</t>
+  </si>
+  <si>
+    <t>user-1770123434179-hdv5qxnlg</t>
+  </si>
+  <si>
+    <t>2026-02-11</t>
+  </si>
+  <si>
+    <t>2026-02-14</t>
+  </si>
+  <si>
+    <t>+66957349275</t>
+  </si>
+  <si>
+    <t>2026-02-03T12:57:14.179Z</t>
+  </si>
+  <si>
+    <t>user-1770123646790-w54s4ekrd</t>
+  </si>
+  <si>
+    <t>2026-02-17</t>
+  </si>
+  <si>
+    <t>2026-02-19</t>
+  </si>
+  <si>
+    <t>2026-02-03T13:00:46.790Z</t>
+  </si>
+  <si>
+    <t>user-1770123754862-jozvss91e</t>
+  </si>
+  <si>
+    <t>2026-02-03T13:02:34.862Z</t>
+  </si>
+  <si>
+    <t>unconfirmed</t>
+  </si>
+  <si>
+    <t>user-1770123787242-kwvoajkdq</t>
+  </si>
+  <si>
+    <t>2026-02-03T13:03:07.242Z</t>
+  </si>
+  <si>
+    <t>user-1770123940216-f7cat94iy</t>
+  </si>
+  <si>
+    <t>2026-02-03T13:05:40.216Z</t>
+  </si>
+  <si>
+    <t>user-1770124073782-qmhzmbswp</t>
+  </si>
+  <si>
+    <t>2026-02-03T13:07:53.782Z</t>
   </si>
 </sst>
 </file>
@@ -121,10 +325,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -466,7 +673,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="A7" sqref="A7"/>
@@ -586,6 +793,646 @@
         <v>18</v>
       </c>
     </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>

--- a/backend/bookings.xlsx
+++ b/backend/bookings.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="101">
   <si>
     <t>ID</t>
   </si>
@@ -256,25 +256,67 @@
     <t>2026-02-03T13:02:34.862Z</t>
   </si>
   <si>
+    <t>user-1770123787242-kwvoajkdq</t>
+  </si>
+  <si>
+    <t>2026-02-03T13:03:07.242Z</t>
+  </si>
+  <si>
+    <t>user-1770123940216-f7cat94iy</t>
+  </si>
+  <si>
+    <t>2026-02-03T13:05:40.216Z</t>
+  </si>
+  <si>
+    <t>user-1770124073782-qmhzmbswp</t>
+  </si>
+  <si>
+    <t>2026-02-03T13:07:53.782Z</t>
+  </si>
+  <si>
+    <t>user-1770188691415-n7qb93o9d</t>
+  </si>
+  <si>
+    <t>2026-02-12</t>
+  </si>
+  <si>
+    <t>2026-02-04T07:04:51.415Z</t>
+  </si>
+  <si>
     <t>unconfirmed</t>
   </si>
   <si>
-    <t>user-1770123787242-kwvoajkdq</t>
-  </si>
-  <si>
-    <t>2026-02-03T13:03:07.242Z</t>
-  </si>
-  <si>
-    <t>user-1770123940216-f7cat94iy</t>
-  </si>
-  <si>
-    <t>2026-02-03T13:05:40.216Z</t>
-  </si>
-  <si>
-    <t>user-1770124073782-qmhzmbswp</t>
-  </si>
-  <si>
-    <t>2026-02-03T13:07:53.782Z</t>
+    <t>user-1770188729206-pdynrx1u5</t>
+  </si>
+  <si>
+    <t>2026-02-04T07:05:29.206Z</t>
+  </si>
+  <si>
+    <t>user-1770189061419-ymxvo4qzo</t>
+  </si>
+  <si>
+    <t>2026-02-04T07:11:01.419Z</t>
+  </si>
+  <si>
+    <t>user-1770189082998-apm8a2i9l</t>
+  </si>
+  <si>
+    <t>2026-02-04T07:11:22.998Z</t>
+  </si>
+  <si>
+    <t>user-1770189151918-mxob4s7k0</t>
+  </si>
+  <si>
+    <t>2026-02-04T07:12:31.918Z</t>
+  </si>
+  <si>
+    <t>user-1770189184091-eb7p7lwn7</t>
+  </si>
+  <si>
+    <t>2026-02-10</t>
+  </si>
+  <si>
+    <t>2026-02-04T07:13:04.091Z</t>
   </si>
 </sst>
 </file>
@@ -673,7 +715,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J28"/>
+  <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="A7" sqref="A7"/>
@@ -1306,131 +1348,323 @@
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D25" s="3" t="s">
+      <c r="B25" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="E25" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="F25" s="3" t="s">
+      <c r="F25" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="G25" s="3" t="s">
+      <c r="G25" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H25" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I25" s="3" t="s">
+      <c r="H25" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I25" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="J25" s="3" t="s">
+      <c r="J25" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
+      <c r="B26" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I26" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B26" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D26" s="3" t="s">
+      <c r="J26" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="E28" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D30" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="F26" s="3" t="s">
+      <c r="E30" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F31" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G26" s="3" t="s">
+      <c r="G31" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="J31" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G32" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="H26" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G27" s="3" t="s">
+      <c r="H32" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G34" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="H27" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="H28" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I28" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="J28" s="3" t="s">
-        <v>80</v>
+      <c r="H34" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="J34" s="3" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/backend/bookings.xlsx
+++ b/backend/bookings.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="77">
   <si>
     <t>ID</t>
   </si>
@@ -70,7 +70,7 @@
     <t>2026-02-04T09:38:56.432Z</t>
   </si>
   <si>
-    <t>confirmed</t>
+    <t>deleted</t>
   </si>
   <si>
     <t>admin-1770197953755-sdd19wp72</t>
@@ -97,9 +97,6 @@
     <t>2026-02-04T09:39:13.755Z</t>
   </si>
   <si>
-    <t>deleted</t>
-  </si>
-  <si>
     <t>admin-1770197989073-ln4belhx8</t>
   </si>
   <si>
@@ -112,9 +109,6 @@
     <t>2026-02-04T09:39:49.073Z</t>
   </si>
   <si>
-    <t>active</t>
-  </si>
-  <si>
     <t>admin-1770197993632-ituym43kl</t>
   </si>
   <si>
@@ -143,6 +137,111 @@
   </si>
   <si>
     <t>2026-02-04T09:40:10.091Z</t>
+  </si>
+  <si>
+    <t>user-1770217230570-q16lgw2m4</t>
+  </si>
+  <si>
+    <t>small-6</t>
+  </si>
+  <si>
+    <t>2026-02-18</t>
+  </si>
+  <si>
+    <t>2026-02-04T15:00:30.570Z</t>
+  </si>
+  <si>
+    <t>user-1770269557423-v2mwc2mvr</t>
+  </si>
+  <si>
+    <t>2026-02-13</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>2026-02-05T05:32:37.423Z</t>
+  </si>
+  <si>
+    <t>user-1770269654810-hdcfop7z8</t>
+  </si>
+  <si>
+    <t>2026-02-12</t>
+  </si>
+  <si>
+    <t>2026-02-21</t>
+  </si>
+  <si>
+    <t>2026-02-05T05:34:14.810Z</t>
+  </si>
+  <si>
+    <t>user-1770269695556-crjmq8by7</t>
+  </si>
+  <si>
+    <t>2026-06-17</t>
+  </si>
+  <si>
+    <t>2026-06-26</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2026-02-05T05:34:55.556Z</t>
+  </si>
+  <si>
+    <t>user-1770269764219-oasf7qz8t</t>
+  </si>
+  <si>
+    <t>2026-02-05T05:36:04.219Z</t>
+  </si>
+  <si>
+    <t>user-1770269799451-h8rgp2qs2</t>
+  </si>
+  <si>
+    <t>2026-02-11</t>
+  </si>
+  <si>
+    <t>2026-02-19</t>
+  </si>
+  <si>
+    <t>2026-02-05T05:36:39.452Z</t>
+  </si>
+  <si>
+    <t>user-1770271881756-s55d3ixyi</t>
+  </si>
+  <si>
+    <t>2026-02-05T06:11:21.756Z</t>
+  </si>
+  <si>
+    <t>user-1770272164903-jnrqyxl8l</t>
+  </si>
+  <si>
+    <t>2026-02-05T06:16:04.903Z</t>
+  </si>
+  <si>
+    <t>user-1770272369480-z84bsit6g</t>
+  </si>
+  <si>
+    <t>2026-02-10</t>
+  </si>
+  <si>
+    <t>+79015545015</t>
+  </si>
+  <si>
+    <t>2026-02-05T06:19:29.480Z</t>
+  </si>
+  <si>
+    <t>user-1770284364545-x5swu67fa</t>
+  </si>
+  <si>
+    <t>2026-02-05T09:39:24.545Z</t>
+  </si>
+  <si>
+    <t>user-1770285718054-dnm83l4fy</t>
+  </si>
+  <si>
+    <t>2026-02-05T10:01:58.054Z</t>
   </si>
 </sst>
 </file>
@@ -161,7 +260,7 @@
       <b/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -171,11 +270,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFE0E0E0"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00FF00"/>
       </patternFill>
     </fill>
     <fill>
@@ -196,13 +290,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -544,7 +635,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J18"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="1"/>
@@ -621,52 +712,52 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3" s="3" t="s">
+      <c r="F3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="J3" s="3" t="s">
-        <v>28</v>
+      <c r="J3" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>25</v>
@@ -678,15 +769,15 @@
         <v>26</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>21</v>
@@ -698,7 +789,7 @@
         <v>13</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>25</v>
@@ -710,27 +801,27 @@
         <v>26</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>25</v>
@@ -742,41 +833,393 @@
         <v>26</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="E7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>17</v>
       </c>
       <c r="I7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="D8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J18" s="2" t="s">
         <v>19</v>
       </c>
     </row>

--- a/backend/bookings.xlsx
+++ b/backend/bookings.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="86">
   <si>
     <t>ID</t>
   </si>
@@ -242,6 +242,33 @@
   </si>
   <si>
     <t>2026-02-05T10:01:58.054Z</t>
+  </si>
+  <si>
+    <t>user-1770292489867-t9l1zdx3p</t>
+  </si>
+  <si>
+    <t>small-1</t>
+  </si>
+  <si>
+    <t>2026-04-06</t>
+  </si>
+  <si>
+    <t>2026-04-10</t>
+  </si>
+  <si>
+    <t>+87776665544</t>
+  </si>
+  <si>
+    <t>2026-02-05T11:54:49.867Z</t>
+  </si>
+  <si>
+    <t>confirmed</t>
+  </si>
+  <si>
+    <t>user-1770292553493-693dbwhkl</t>
+  </si>
+  <si>
+    <t>2026-02-05T11:55:53.493Z</t>
   </si>
 </sst>
 </file>
@@ -260,7 +287,7 @@
       <b/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -277,6 +304,11 @@
         <fgColor rgb="FFFF0000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FF00"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -290,10 +322,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -635,7 +670,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J20"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="1"/>
@@ -1223,6 +1258,70 @@
         <v>19</v>
       </c>
     </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>

--- a/backend/bookings.xlsx
+++ b/backend/bookings.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="112">
   <si>
     <t>ID</t>
   </si>
@@ -269,6 +269,84 @@
   </si>
   <si>
     <t>2026-02-05T11:55:53.493Z</t>
+  </si>
+  <si>
+    <t>user-1770293586764-wzmvqa4ph</t>
+  </si>
+  <si>
+    <t>2026-02-20</t>
+  </si>
+  <si>
+    <t>2026-02-05T12:13:06.764Z</t>
+  </si>
+  <si>
+    <t>Mister</t>
+  </si>
+  <si>
+    <t>Beast</t>
+  </si>
+  <si>
+    <t>user-1770293859223-99rwd9gag</t>
+  </si>
+  <si>
+    <t>2026-02-05T12:17:39.223Z</t>
+  </si>
+  <si>
+    <t>Kirill</t>
+  </si>
+  <si>
+    <t>Kuzmani</t>
+  </si>
+  <si>
+    <t>user-1770294208864-6bnxbut35</t>
+  </si>
+  <si>
+    <t>2026-02-15</t>
+  </si>
+  <si>
+    <t>+79295492600</t>
+  </si>
+  <si>
+    <t>2026-02-05T12:23:28.864Z</t>
+  </si>
+  <si>
+    <t>Анна</t>
+  </si>
+  <si>
+    <t>Москаленко</t>
+  </si>
+  <si>
+    <t>user-1770294551426-xhgd0mpbp</t>
+  </si>
+  <si>
+    <t>2026-02-24</t>
+  </si>
+  <si>
+    <t>2026-02-05T12:29:11.426Z</t>
+  </si>
+  <si>
+    <t>sam</t>
+  </si>
+  <si>
+    <t>Smith</t>
+  </si>
+  <si>
+    <t>user-1770294759116-ta2m3q2gi</t>
+  </si>
+  <si>
+    <t>2026-02-05T12:32:39.116Z</t>
+  </si>
+  <si>
+    <t>user-1770294784568-8dd1bayb8</t>
+  </si>
+  <si>
+    <t>2026-02-05T12:33:04.568Z</t>
+  </si>
+  <si>
+    <t>user-1770294820911-1xce06d4o</t>
+  </si>
+  <si>
+    <t>2026-02-05T12:33:40.911Z</t>
   </si>
 </sst>
 </file>
@@ -670,7 +748,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:L27"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="1"/>
@@ -1259,67 +1337,333 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E19" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="F19" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="G19" s="3" t="s">
+      <c r="G19" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="H19" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I19" s="3" t="s">
+      <c r="H19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I19" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="J19" s="3" t="s">
+      <c r="J19" s="2" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E20" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="F20" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="G20" s="3" t="s">
+      <c r="G20" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I20" s="3" t="s">
+      <c r="H20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I20" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="J20" s="3" t="s">
+      <c r="J20" s="2" t="s">
         <v>83</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="L25" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/backend/bookings.xlsx
+++ b/backend/bookings.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="78">
   <si>
     <t>ID</t>
   </si>
@@ -76,13 +76,175 @@
     <t>2026-02-06T04:58:42.001Z</t>
   </si>
   <si>
+    <t>deleted</t>
+  </si>
+  <si>
+    <t>Анна</t>
+  </si>
+  <si>
+    <t>Москаленко</t>
+  </si>
+  <si>
+    <t>user-1770357934471-3wsomywg1</t>
+  </si>
+  <si>
+    <t>big</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>2026-02-16</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>2026-02-06T06:05:34.471Z</t>
+  </si>
+  <si>
+    <t>user-1770358049198-8iywpr1qn</t>
+  </si>
+  <si>
+    <t>2026-02-10</t>
+  </si>
+  <si>
+    <t>2026-02-14</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>+66957349275</t>
+  </si>
+  <si>
+    <t>2026-02-06T06:07:29.198Z</t>
+  </si>
+  <si>
+    <t>Kirill</t>
+  </si>
+  <si>
+    <t>Kuzmani</t>
+  </si>
+  <si>
+    <t>user-1770358163353-82om4gvf0</t>
+  </si>
+  <si>
+    <t>2026-02-17</t>
+  </si>
+  <si>
+    <t>2026-02-06T06:09:23.353Z</t>
+  </si>
+  <si>
+    <t>user-1770358750566-kxk17b2tp</t>
+  </si>
+  <si>
+    <t>2026-02-09</t>
+  </si>
+  <si>
+    <t>2026-02-06T06:19:10.566Z</t>
+  </si>
+  <si>
+    <t>user-1770358833660-rc47y3x26</t>
+  </si>
+  <si>
+    <t>2026-02-20</t>
+  </si>
+  <si>
+    <t>2026-02-06T06:20:33.660Z</t>
+  </si>
+  <si>
+    <t>user-1770364480632-xpiokv9v9</t>
+  </si>
+  <si>
+    <t>2026-02-12</t>
+  </si>
+  <si>
+    <t>2026-02-06T07:54:40.632Z</t>
+  </si>
+  <si>
+    <t>user-1770364620725-s2c3tj1ho</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>2026-02-26</t>
+  </si>
+  <si>
+    <t>2026-02-06T07:57:00.725Z</t>
+  </si>
+  <si>
+    <t>sam</t>
+  </si>
+  <si>
+    <t>Smith</t>
+  </si>
+  <si>
+    <t>user-1770364651724-49feb8jlr</t>
+  </si>
+  <si>
+    <t>2026-02-19</t>
+  </si>
+  <si>
+    <t>+79774378837</t>
+  </si>
+  <si>
+    <t>2026-02-06T07:57:31.724Z</t>
+  </si>
+  <si>
+    <t>Яна</t>
+  </si>
+  <si>
+    <t>Кузмани</t>
+  </si>
+  <si>
+    <t>user-1770364665753-f27fwclqu</t>
+  </si>
+  <si>
+    <t>2026-02-27</t>
+  </si>
+  <si>
+    <t>2026-02-06T07:57:45.753Z</t>
+  </si>
+  <si>
+    <t>user-1770364701779-xc6l26anf</t>
+  </si>
+  <si>
+    <t>2026-02-06T07:58:21.779Z</t>
+  </si>
+  <si>
+    <t>user-1770364744684-m5xrl8snt</t>
+  </si>
+  <si>
+    <t>2026-02-11</t>
+  </si>
+  <si>
+    <t>2026-02-23</t>
+  </si>
+  <si>
+    <t>2026-02-06T07:59:04.684Z</t>
+  </si>
+  <si>
+    <t>user-1770364760012-890vmkie3</t>
+  </si>
+  <si>
+    <t>2026-02-06T07:59:20.012Z</t>
+  </si>
+  <si>
+    <t>user-1770368052675-s1yks9vql</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>+79015545015</t>
+  </si>
+  <si>
+    <t>2026-02-06T08:54:12.675Z</t>
+  </si>
+  <si>
     <t>confirmed</t>
-  </si>
-  <si>
-    <t>Анна</t>
-  </si>
-  <si>
-    <t>Москаленко</t>
   </si>
 </sst>
 </file>
@@ -101,7 +263,7 @@
       <b/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -111,6 +273,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFE0E0E0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
       </patternFill>
     </fill>
     <fill>
@@ -131,10 +298,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -476,7 +646,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L15"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="1"/>
@@ -565,6 +735,500 @@
         <v>23</v>
       </c>
     </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>

--- a/backend/bookings.xlsx
+++ b/backend/bookings.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="139">
   <si>
     <t>ID</t>
   </si>
@@ -245,6 +245,189 @@
   </si>
   <si>
     <t>confirmed</t>
+  </si>
+  <si>
+    <t>user-1770368544072-5sp8ffp3a</t>
+  </si>
+  <si>
+    <t>2026-02-08</t>
+  </si>
+  <si>
+    <t>2026-02-06T09:02:24.072Z</t>
+  </si>
+  <si>
+    <t>user-1770368633122-ldud4trtt</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>2026-02-06T09:03:53.122Z</t>
+  </si>
+  <si>
+    <t>user-1770368663097-nskwwo5iv</t>
+  </si>
+  <si>
+    <t>2026-02-18</t>
+  </si>
+  <si>
+    <t>2026-02-06T09:04:23.097Z</t>
+  </si>
+  <si>
+    <t>user-1770369968356-b0d0br8rm</t>
+  </si>
+  <si>
+    <t>2026-02-06T09:26:08.356Z</t>
+  </si>
+  <si>
+    <t>user-1770370265416-vunopvewx</t>
+  </si>
+  <si>
+    <t>2026-02-06T09:31:05.416Z</t>
+  </si>
+  <si>
+    <t>user-1770370650388-5shjs4a76</t>
+  </si>
+  <si>
+    <t>2026-02-06T09:37:30.388Z</t>
+  </si>
+  <si>
+    <t>user-1770371254964-a12td2ud5</t>
+  </si>
+  <si>
+    <t>2026-02-06T09:47:34.964Z</t>
+  </si>
+  <si>
+    <t>user-1770371271543-iarcw3mmy</t>
+  </si>
+  <si>
+    <t>2026-02-06T09:47:51.543Z</t>
+  </si>
+  <si>
+    <t>user-1770371298649-dnl9i0m6d</t>
+  </si>
+  <si>
+    <t>2026-02-06T09:48:18.649Z</t>
+  </si>
+  <si>
+    <t>user-1770371380247-28gke975g</t>
+  </si>
+  <si>
+    <t>2026-02-13</t>
+  </si>
+  <si>
+    <t>2026-02-06T09:49:40.247Z</t>
+  </si>
+  <si>
+    <t>user-1770371542574-naeiod4zi</t>
+  </si>
+  <si>
+    <t>2026-02-06T09:52:22.574Z</t>
+  </si>
+  <si>
+    <t>user-1770371659097-pcwx7q5th</t>
+  </si>
+  <si>
+    <t>2026-02-06T09:54:19.097Z</t>
+  </si>
+  <si>
+    <t>user-1770371722140-mv8mi9djb</t>
+  </si>
+  <si>
+    <t>2026-02-06T09:55:22.140Z</t>
+  </si>
+  <si>
+    <t>user-1770371737544-3pt1lke4p</t>
+  </si>
+  <si>
+    <t>2026-02-06T09:55:37.544Z</t>
+  </si>
+  <si>
+    <t>user-1770371750125-5z3b4c45l</t>
+  </si>
+  <si>
+    <t>2026-02-06T09:55:50.125Z</t>
+  </si>
+  <si>
+    <t>user-1770371845324-qiihcavoc</t>
+  </si>
+  <si>
+    <t>2026-02-06T09:57:25.324Z</t>
+  </si>
+  <si>
+    <t>user-1770371891941-k8ja56s3z</t>
+  </si>
+  <si>
+    <t>2026-02-06T09:58:11.941Z</t>
+  </si>
+  <si>
+    <t>user-1770371985442-x1y7jrh4o</t>
+  </si>
+  <si>
+    <t>2026-02-06T09:59:45.442Z</t>
+  </si>
+  <si>
+    <t>user-1770372688695-weu89k3gx</t>
+  </si>
+  <si>
+    <t>2026-02-06T10:11:28.695Z</t>
+  </si>
+  <si>
+    <t>user-1770372788104-cm5hba8u7</t>
+  </si>
+  <si>
+    <t>2026-02-06T10:13:08.104Z</t>
+  </si>
+  <si>
+    <t>user-1770372902360-5trl508bq</t>
+  </si>
+  <si>
+    <t>2026-02-06T10:15:02.360Z</t>
+  </si>
+  <si>
+    <t>user-1770373116570-2c12wjxpf</t>
+  </si>
+  <si>
+    <t>2026-02-06T10:18:36.570Z</t>
+  </si>
+  <si>
+    <t>user-1770373142999-mavx4sfyp</t>
+  </si>
+  <si>
+    <t>2026-02-06T10:19:02.999Z</t>
+  </si>
+  <si>
+    <t>user-1770373158935-zlfulvfjc</t>
+  </si>
+  <si>
+    <t>2026-02-06T10:19:18.935Z</t>
+  </si>
+  <si>
+    <t>user-1770373306575-5hcbwyfuz</t>
+  </si>
+  <si>
+    <t>2026-02-24</t>
+  </si>
+  <si>
+    <t>2026-02-06T10:21:46.575Z</t>
+  </si>
+  <si>
+    <t>user-1770373335683-kg03p024s</t>
+  </si>
+  <si>
+    <t>2026-02-06T10:22:15.683Z</t>
+  </si>
+  <si>
+    <t>user-1770373350203-nwd2fv99y</t>
+  </si>
+  <si>
+    <t>2026-02-06T10:22:30.203Z</t>
+  </si>
+  <si>
+    <t>user-1770373446017-9dpg4q0co</t>
+  </si>
+  <si>
+    <t>2026-02-06T10:24:06.017Z</t>
   </si>
 </sst>
 </file>
@@ -646,7 +829,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:L43"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="1"/>
@@ -1229,6 +1412,1070 @@
         <v>55</v>
       </c>
     </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L30" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L35" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L36" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K37" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L37" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K38" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L38" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K39" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L39" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K40" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L40" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K41" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L41" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K42" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L42" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K43" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L43" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>

--- a/backend/bookings.xlsx
+++ b/backend/bookings.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="49">
   <si>
     <t>ID</t>
   </si>
@@ -107,6 +107,57 @@
   </si>
   <si>
     <t>unconfirmed</t>
+  </si>
+  <si>
+    <t>user-1770378256510-bsbthpkl7</t>
+  </si>
+  <si>
+    <t>2026-02-06</t>
+  </si>
+  <si>
+    <t>2026-02-14</t>
+  </si>
+  <si>
+    <t>234234</t>
+  </si>
+  <si>
+    <t>2026-02-06T11:44:16.510Z</t>
+  </si>
+  <si>
+    <t>dsfgdgdfg</t>
+  </si>
+  <si>
+    <t>dfgdfgdfg</t>
+  </si>
+  <si>
+    <t>user-1770378294628-6kchi4o5j</t>
+  </si>
+  <si>
+    <t>2026-02-21</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>2026-02-06T11:44:54.628Z</t>
+  </si>
+  <si>
+    <t>asdasd</t>
+  </si>
+  <si>
+    <t>user-1770378473586-0kvom660j</t>
+  </si>
+  <si>
+    <t>2026-02-18</t>
+  </si>
+  <si>
+    <t>123123</t>
+  </si>
+  <si>
+    <t>2026-02-06T11:47:53.586Z</t>
+  </si>
+  <si>
+    <t>QWEQWE</t>
   </si>
 </sst>
 </file>
@@ -503,7 +554,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L6"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="1"/>
@@ -630,6 +681,120 @@
         <v>23</v>
       </c>
     </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>

--- a/backend/bookings.xlsx
+++ b/backend/bookings.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="54">
   <si>
     <t>ID</t>
   </si>
@@ -158,6 +158,21 @@
   </si>
   <si>
     <t>QWEQWE</t>
+  </si>
+  <si>
+    <t>user-1770720264115-t9pt0no65</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>2026-02-16</t>
+  </si>
+  <si>
+    <t>2026-02-19</t>
+  </si>
+  <si>
+    <t>2026-02-10T10:44:24.115Z</t>
   </si>
 </sst>
 </file>
@@ -206,13 +221,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -554,7 +566,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:L7"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="1"/>
@@ -644,155 +656,193 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="L3" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="L4" s="2" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="J5" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="K5" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="L5" s="2" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="I6" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="J6" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="K6" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="L6" s="2" t="s">
         <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
